--- a/$HUMA2.xlsx
+++ b/$HUMA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\Biotech Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astaj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF3D3D3-1271-4CE9-917C-6F6AA6D59231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F167D62-AC5A-4F8F-9824-96AA4196357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialysis data " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="PTFE Data " sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="409">
   <si>
     <t xml:space="preserve">HUMA </t>
   </si>
@@ -588,9 +587,6 @@
     <t xml:space="preserve">ph2/3, n=72, multi ctr, non-randomized, with life or limb threatening vascular trauma </t>
   </si>
   <si>
-    <t>p=0.389 alone</t>
-  </si>
-  <si>
     <t>Initial, short-term placement of prosthetic grafts with subsequent revision to a vein graft was defined as a temporizing procedure, and the patency of the vein graft was reported</t>
   </si>
   <si>
@@ -735,9 +731,6 @@
     <t>p=0.90</t>
   </si>
   <si>
-    <t>periphery, 8yr no Aes</t>
-  </si>
-  <si>
     <t>A Retrospective Cohort Comparison of Expanded Polytetrafluorethylene to Autologous Vein for Vascular Reconstruction in Modern Combat Casualty Care</t>
   </si>
   <si>
@@ -751,9 +744,6 @@
   </si>
   <si>
     <t>ISS ~20, MESS ~6</t>
-  </si>
-  <si>
-    <t>DATA FOR HISTORICAL COMPARISON</t>
   </si>
   <si>
     <t>Ischemia and functional status of the left arm and quality of life after left subclavian artery coverage during stent grafting of thoracic aortic diseases</t>
@@ -962,6 +952,417 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t>periphery, 8yr no AEs</t>
+  </si>
+  <si>
+    <t>Vertrees paper</t>
+  </si>
+  <si>
+    <t>Traumatic Lower Extremity Vascular Injuries and Limb Salvage in a Civilian Urban Trauma Center</t>
+  </si>
+  <si>
+    <t>Urechagga paper</t>
+  </si>
+  <si>
+    <t>retrospective analysis of lvl 1 trauma center btwn 2013-2020</t>
+  </si>
+  <si>
+    <t>primary objective was to look at limb salvage</t>
+  </si>
+  <si>
+    <t>secondary objective was mortality, mobility and complications</t>
+  </si>
+  <si>
+    <t>n=80</t>
+  </si>
+  <si>
+    <t>91% male, 68% penetrating, mISS 13</t>
+  </si>
+  <si>
+    <t>mostly short term follow-ups, only about a month or so. No long term data</t>
+  </si>
+  <si>
+    <t>In-Hospital Outcomes in Autogenous Vein Versus Synthetic Graft Interposition for Traumatic Arterial Injury: A Propensity-Matched Cohort From PROOVIT</t>
+  </si>
+  <si>
+    <t>Proovit database comparison, headline:</t>
+  </si>
+  <si>
+    <t>Prosthetic conduits work as well as autologous vein for interposition grafts in trauma</t>
+  </si>
+  <si>
+    <t>n=460, 402 SVG, 58 plastic (45 PTFE, 8 Dacron, 5 others)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic group pts were worse off. Higher ISS, more gunshot wounds, more lactate and transfusion reqs, </t>
+  </si>
+  <si>
+    <t>lower BP, pH, and hemoglobin</t>
+  </si>
+  <si>
+    <t>after propensity matching they had 87 AVGs and 51 PGs</t>
+  </si>
+  <si>
+    <r>
+      <t>endovascular intervention, reoperation, pseudoaneurysm and infection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were same </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">no mention of long term outcomes or amputation data </t>
+  </si>
+  <si>
+    <t>Stonko paper</t>
+  </si>
+  <si>
+    <t>Management and outcome of 597 wartime penetrating lower extremity arterial injuries from an international military cohort</t>
+  </si>
+  <si>
+    <t>Sharrock paper, Rasmussen last author</t>
+  </si>
+  <si>
+    <t>The objective of this study was to provide a comprehensive examination of penetrating lower extremity arterial injury and to characterize long-term limb salvage and differences related to mechanisms of injury</t>
+  </si>
+  <si>
+    <t>compared explosion (group 1) and gunshot (group 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">injuries </t>
+  </si>
+  <si>
+    <t>explosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gunnshot </t>
+  </si>
+  <si>
+    <t>ISS</t>
+  </si>
+  <si>
+    <t>MESS</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>more blood</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>more amputatin</t>
+  </si>
+  <si>
+    <t>patency similar in both</t>
+  </si>
+  <si>
+    <t>5.5yr amputation free</t>
+  </si>
+  <si>
+    <t>mentioned amputations often occur weeks after initial surgery</t>
+  </si>
+  <si>
+    <t>Long-term, patient-centered outcomes of Lower Extremity Vascular Trauma</t>
+  </si>
+  <si>
+    <t>Perkins paper Rasmussen last author</t>
+  </si>
+  <si>
+    <t>ex. injuries, n=</t>
+  </si>
+  <si>
+    <t>primary amputation</t>
+  </si>
+  <si>
+    <t>salvage surgery</t>
+  </si>
+  <si>
+    <t>sec. amp, &lt;30d</t>
+  </si>
+  <si>
+    <t>sec. amp, &gt;30d</t>
+  </si>
+  <si>
+    <t>10yr amp. Free</t>
+  </si>
+  <si>
+    <t>GWOT-VII database</t>
+  </si>
+  <si>
+    <t>from JTTR registry</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>3 &lt;24h, 1 2m later</t>
+  </si>
+  <si>
+    <t>sec amp</t>
+  </si>
+  <si>
+    <t>total amp</t>
+  </si>
+  <si>
+    <t>this is their amputation comparator</t>
+  </si>
+  <si>
+    <t>this includes primary and secondary amputations</t>
+  </si>
+  <si>
+    <t>these are amputations that had a salvage attempted</t>
+  </si>
+  <si>
+    <t>better comparator</t>
+  </si>
+  <si>
+    <t>Topline</t>
+  </si>
+  <si>
+    <t>Reasons for amputation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necrosis of tissue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>rzn for necrosis</t>
+  </si>
+  <si>
+    <t>before arrival</t>
+  </si>
+  <si>
+    <t>revasculaized, pre-op</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fail vasc, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thrombosis</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">haemorhage </t>
+  </si>
+  <si>
+    <t>drug AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they note that they get fewer amputations and better results in soldiers than civillians </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvage </t>
+  </si>
+  <si>
+    <t>Pri. Amp</t>
+  </si>
+  <si>
+    <t>Sec. Amp</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 year data </t>
+  </si>
+  <si>
+    <t>Penetrating femoral artery injuries: an urban trauma centre experience</t>
+  </si>
+  <si>
+    <t>1 PTFE amputation, Sec. amp</t>
+  </si>
+  <si>
+    <t>1 PTFE sepsis, resolved, graft saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 PTFE grafts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayamaji paper </t>
+  </si>
+  <si>
+    <t>all femoral injuries at Groote Shurr hospital (Germany), 2002-2012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n=158, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>81 repairs, 53 AVG, 16 PTFE</t>
+    </r>
+  </si>
+  <si>
+    <t>primary amp</t>
+  </si>
+  <si>
+    <t>PTFE amp rate</t>
+  </si>
+  <si>
+    <t>Contemporary management of wartime vascular trauma</t>
+  </si>
+  <si>
+    <t>from Dec 2001 to Mar 2004</t>
+  </si>
+  <si>
+    <t>Fox study, single center, Walter Reed Bethesda, MD</t>
+  </si>
+  <si>
+    <t>soldiers evacd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battle injuries </t>
+  </si>
+  <si>
+    <t>vascular injuries</t>
+  </si>
+  <si>
+    <t>study group</t>
+  </si>
+  <si>
+    <t>explosive wound</t>
+  </si>
+  <si>
+    <t>gunshot</t>
+  </si>
+  <si>
+    <t>blunt trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repair in theater </t>
+  </si>
+  <si>
+    <t>prim amp</t>
+  </si>
+  <si>
+    <t>sec amp, repaired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 had mangled extremities w infections/ contaminated wounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fox says 5/5 PTFE grafts failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">he didn't report on it, "was looking into that", might be a follow-on study </t>
+  </si>
+  <si>
+    <t>DATA FOR SYNTH BENCHMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow up time </t>
+  </si>
+  <si>
+    <t>62m</t>
+  </si>
+  <si>
+    <t>71m</t>
+  </si>
+  <si>
+    <t>so only exetremities were different</t>
+  </si>
+  <si>
+    <r>
+      <t>mortality 5%,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> amputation 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in survivors</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">we don’t really know how outcomes differ btwn AVG and PTFE. But overall 90% limb salvage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">again, not really chopping up the data on PTFE vs AVG. this was looking at  lower body explosion vs gunshot </t>
+  </si>
+  <si>
+    <t>n=16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">but also that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mISS was about 40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, range 16-75 in about a 1/3 of pts he had looked at </t>
+    </r>
+  </si>
+  <si>
+    <t>p=0.31 alone</t>
+  </si>
 </sst>
 </file>
 
@@ -970,7 +1371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1427,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1182,7 +1591,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1218,6 +1627,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1676,6 +2089,94 @@
         <a:xfrm>
           <a:off x="5975350" y="19941664"/>
           <a:ext cx="2093189" cy="1350444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>2634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105993</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>24768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8358E3C4-3F0B-E06A-5F05-8770917BFA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="30225459"/>
+          <a:ext cx="2339606" cy="1831884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>50958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>339094</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>172439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC327C5-99F0-3495-C25A-2E0B8BD49F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5957887" y="40770333"/>
+          <a:ext cx="2044070" cy="2112206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,52 +2688,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C12F87-22F6-4A73-AE59-8F1AD2B65A37}">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +2741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2251,7 +2752,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -2265,55 +2766,55 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2324,9 +2825,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B39" s="5">
         <v>0.92</v>
@@ -2335,9 +2836,9 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5">
         <v>0.82</v>
@@ -2346,9 +2847,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B41" s="5">
         <v>0.73</v>
@@ -2357,9 +2858,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B42" s="5">
         <v>0.67</v>
@@ -2368,63 +2869,63 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -2432,17 +2933,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B75" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -2461,7 +2962,7 @@
         <v>16533</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -2472,7 +2973,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -2483,7 +2984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B86" s="4" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -2511,7 +3012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -2531,7 +3032,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2551,7 +3052,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2574,7 +3075,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2588,7 +3089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2611,11 +3112,11 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -2641,7 +3142,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2664,7 +3165,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2687,7 +3188,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3</v>
       </c>
@@ -2710,7 +3211,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2733,7 +3234,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2747,11 +3248,11 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -2762,7 +3263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +3274,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2784,7 +3285,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2795,7 +3296,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2806,7 +3307,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2817,7 +3318,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -2827,87 +3328,87 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F111" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="128" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="135" spans="1:4" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" ht="5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="135" spans="1:4" ht="5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
         <v>192</v>
-      </c>
-      <c r="D137" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>193</v>
       </c>
       <c r="B138" s="5">
         <v>0.78</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>2008</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B147" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B145" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B147" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C148" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D148" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B149" s="5">
         <v>0.9</v>
@@ -2919,9 +3420,9 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B150" s="5">
         <v>0.75</v>
@@ -2933,57 +3434,57 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B152" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>2020</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" t="s">
+        <v>257</v>
+      </c>
+      <c r="E162" t="s">
         <v>258</v>
       </c>
-      <c r="C162" t="s">
-        <v>259</v>
-      </c>
-      <c r="D162" t="s">
-        <v>260</v>
-      </c>
-      <c r="E162" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B163" s="5">
         <v>0.56000000000000005</v>
@@ -2998,9 +3499,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B164" s="5">
         <v>0.59</v>
@@ -3015,9 +3516,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B165" s="5">
         <v>0.8</v>
@@ -3043,33 +3544,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C0B03-A85E-4475-AFC6-CFCE429589BC}">
-  <dimension ref="A3:L164"/>
+  <dimension ref="A3:L273"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>181</v>
       </c>
@@ -3077,17 +3578,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -3097,9 +3598,9 @@
       <c r="K14" s="16"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>94</v>
@@ -3107,7 +3608,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -3115,7 +3616,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -3123,37 +3624,37 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>82</v>
       </c>
@@ -3161,12 +3662,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>84</v>
       </c>
@@ -3174,7 +3675,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>87</v>
       </c>
@@ -3182,66 +3683,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>100</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3252,13 +3753,13 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K39">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -3269,13 +3770,13 @@
         <v>121</v>
       </c>
       <c r="J40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -3289,53 +3790,53 @@
         <v>107</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="1">
         <v>0.02</v>
       </c>
-      <c r="D42" s="1">
-        <v>8.4000000000000005E-2</v>
+      <c r="D42" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K42">
         <f>SUM(K39:K41)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="J43" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="J44" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K44">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="31">
         <v>0.91500000000000004</v>
@@ -3343,13 +3844,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="J45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="28" t="s">
         <v>33</v>
       </c>
@@ -3359,13 +3860,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="J46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
         <v>105</v>
       </c>
@@ -3375,33 +3876,33 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="J47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K47">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="J48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>11</v>
       </c>
@@ -3409,7 +3910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3921,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -3431,7 +3932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3442,119 +3943,119 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="31">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="32">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B82" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -3562,67 +4063,67 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>2015</v>
       </c>
@@ -3630,17 +4131,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B107" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -3648,103 +4149,103 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A129" s="38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>2014</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B132" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B132" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B133" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B134" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>2013</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B144">
         <v>24</v>
@@ -3753,200 +4254,917 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>225</v>
-      </c>
-      <c r="B145" s="5">
+        <v>399</v>
+      </c>
+      <c r="B145" t="s">
+        <v>400</v>
+      </c>
+      <c r="C145" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>224</v>
+      </c>
+      <c r="B146" s="5">
         <v>0.65</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C146" s="5">
         <v>0.17</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B147" t="s">
         <v>228</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" t="s">
         <v>229</v>
       </c>
-      <c r="C146" t="s">
-        <v>229</v>
-      </c>
-      <c r="D146" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>231</v>
-      </c>
-      <c r="B147" s="5">
+      <c r="E147" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>300</v>
+      </c>
+      <c r="B148" s="5">
         <v>0.77</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C148" s="5">
         <v>0.31</v>
       </c>
-      <c r="D147" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154">
         <v>2009</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B154" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>243</v>
-      </c>
-      <c r="B154" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>245</v>
-      </c>
-      <c r="B156">
+      <c r="B158">
         <v>6</v>
       </c>
-      <c r="E156" t="s">
-        <v>295</v>
-      </c>
-      <c r="F156">
+      <c r="E158" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158">
         <v>8</v>
       </c>
-      <c r="G156" t="s">
-        <v>300</v>
-      </c>
-      <c r="H156" s="1">
-        <f>F156/14</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>246</v>
-      </c>
-      <c r="B157">
-        <v>6</v>
-      </c>
-      <c r="E157" t="s">
-        <v>296</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
-      </c>
-      <c r="G157" t="s">
-        <v>301</v>
-      </c>
-      <c r="H157" s="1">
-        <f>F157/14</f>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>247</v>
-      </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="G158" t="s">
         <v>297</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158" t="s">
-        <v>302</v>
       </c>
       <c r="H158" s="1">
         <f>F158/14</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B159" t="s">
-        <v>249</v>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>243</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
       </c>
       <c r="E159" t="s">
+        <v>293</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159" t="s">
         <v>298</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159" t="s">
-        <v>302</v>
       </c>
       <c r="H159" s="1">
         <f>F159/14</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>248</v>
-      </c>
-      <c r="B160" s="5">
-        <v>0.79</v>
+        <v>244</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H160" s="1">
         <f>F160/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
+        <v>246</v>
+      </c>
+      <c r="E161" t="s">
+        <v>295</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>299</v>
+      </c>
+      <c r="H161" s="1">
+        <f>F161/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>245</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>299</v>
+      </c>
+      <c r="H162" s="1">
+        <f>F162/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B166" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" t="s">
-        <v>253</v>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B169" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>2021</v>
+      </c>
+      <c r="B170" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B171" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B174" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B177" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D180" s="23"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>2022</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B184" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B185" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B186" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B188" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B189" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B190" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>2019</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B194" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>324</v>
+      </c>
+      <c r="B196">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>325</v>
+      </c>
+      <c r="B197">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B198" t="s">
+        <v>326</v>
+      </c>
+      <c r="C198" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>330</v>
+      </c>
+      <c r="B199">
+        <v>416</v>
+      </c>
+      <c r="C199">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>331</v>
+      </c>
+      <c r="B202" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>333</v>
+      </c>
+      <c r="B203" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>335</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="C205" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B207" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B208" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>2016</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B211" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B212" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>340</v>
+      </c>
+      <c r="B216">
+        <v>49</v>
+      </c>
+      <c r="C216" s="2">
+        <f>B216/B215</f>
+        <v>8.46286701208981E-2</v>
+      </c>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>341</v>
+      </c>
+      <c r="B217">
+        <v>530</v>
+      </c>
+      <c r="C217" s="2">
+        <f>B217/B215</f>
+        <v>0.91537132987910186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>349</v>
+      </c>
+      <c r="B218">
+        <v>90</v>
+      </c>
+      <c r="C218" s="36">
+        <f>B218/B217</f>
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="D218" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>342</v>
+      </c>
+      <c r="B219">
+        <v>60</v>
+      </c>
+      <c r="D219" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>343</v>
+      </c>
+      <c r="B220">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>344</v>
+      </c>
+      <c r="B221">
+        <v>438</v>
+      </c>
+      <c r="C221" s="2">
+        <f>B221/B217</f>
+        <v>0.82641509433962268</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>347</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222" s="35">
+        <f>B222/B215</f>
+        <v>6.9084628670120895E-3</v>
+      </c>
+      <c r="D222" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>350</v>
+      </c>
+      <c r="B223">
+        <v>139</v>
+      </c>
+      <c r="C223" s="36">
+        <f>B223/B215</f>
+        <v>0.24006908462867013</v>
+      </c>
+      <c r="D223" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D224" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>358</v>
+      </c>
+      <c r="B227">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>357</v>
+      </c>
+      <c r="B228">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>360</v>
+      </c>
+      <c r="B230">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>361</v>
+      </c>
+      <c r="B231">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>362</v>
+      </c>
+      <c r="B232">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>363</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>364</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B235" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B237" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C238" t="s">
+        <v>366</v>
+      </c>
+      <c r="D238" t="s">
+        <v>367</v>
+      </c>
+      <c r="E238" t="s">
+        <v>368</v>
+      </c>
+      <c r="F238" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B239" t="s">
+        <v>370</v>
+      </c>
+      <c r="C239">
+        <v>247</v>
+      </c>
+      <c r="D239">
+        <v>205</v>
+      </c>
+      <c r="E239">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D240" s="1">
+        <f>D239/C239</f>
+        <v>0.82995951417004044</v>
+      </c>
+      <c r="E240" s="1">
+        <f>E239/C239</f>
+        <v>3.2388663967611336E-2</v>
+      </c>
+      <c r="F240" s="1">
+        <f>F239/C239</f>
+        <v>0.22267206477732793</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B241" t="s">
+        <v>371</v>
+      </c>
+      <c r="C241">
+        <v>21</v>
+      </c>
+      <c r="D241">
+        <v>14</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D242" s="1">
+        <f>D241/C241</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E242" s="1">
+        <f>E241/C241</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="F242" s="1">
+        <f>F241/C241</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>2018</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B246" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B247" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B248" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>380</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1">
+        <f>B249/158</f>
+        <v>2.5316455696202531E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>349</v>
+      </c>
+      <c r="B250">
+        <v>10</v>
+      </c>
+      <c r="C250" s="1">
+        <f>B250/158</f>
+        <v>6.3291139240506333E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B252" t="s">
+        <v>376</v>
+      </c>
+      <c r="E252" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B253" t="s">
+        <v>374</v>
+      </c>
+      <c r="E253" s="37">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F253" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B254" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>2005</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>385</v>
+      </c>
+      <c r="B260">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>386</v>
+      </c>
+      <c r="B261">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>387</v>
+      </c>
+      <c r="B262" s="4">
+        <v>107</v>
+      </c>
+      <c r="C262" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>389</v>
+      </c>
+      <c r="B263">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>390</v>
+      </c>
+      <c r="B264">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>391</v>
+      </c>
+      <c r="B265">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>392</v>
+      </c>
+      <c r="B266">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>393</v>
+      </c>
+      <c r="B267">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>394</v>
+      </c>
+      <c r="B268">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B269" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B271" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B273" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3968,99 +5186,99 @@
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2024</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>203</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>209</v>
       </c>
       <c r="B42" s="5">
         <v>0.73</v>
@@ -4069,12 +5287,12 @@
         <v>0.81</v>
       </c>
       <c r="D42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>215</v>
       </c>
       <c r="B43" s="5">
         <v>0.84</v>
@@ -4083,13 +5301,13 @@
         <v>0.88</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -4100,12 +5318,12 @@
         <v>0.5</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B45" s="5">
         <v>0.45</v>
@@ -4114,12 +5332,12 @@
         <v>0.72</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="5">
         <v>0.64</v>
@@ -4128,25 +5346,25 @@
         <v>0.72</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2024</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4163,58 +5381,58 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>144</v>
       </c>
@@ -4228,7 +5446,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -4245,7 +5463,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -4262,7 +5480,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -4279,7 +5497,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -4296,7 +5514,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -4313,7 +5531,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -4330,12 +5548,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>173</v>
       </c>
@@ -4343,7 +5561,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>169</v>
       </c>
@@ -4354,7 +5572,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
         <v>149</v>
       </c>
@@ -4365,7 +5583,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>170</v>
       </c>
@@ -4376,7 +5594,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
         <v>171</v>
       </c>
@@ -4387,7 +5605,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="18" t="s">
         <v>172</v>
       </c>
@@ -4398,7 +5616,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="15" t="s">
         <v>150</v>
       </c>
@@ -4409,7 +5627,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="28" t="s">
         <v>176</v>
       </c>
@@ -4420,7 +5638,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
         <v>177</v>
       </c>
@@ -4431,7 +5649,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>180</v>
       </c>

--- a/$HUMA2.xlsx
+++ b/$HUMA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astaj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aquanker\Documents\Biotech Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F167D62-AC5A-4F8F-9824-96AA4196357D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF3D3D3-1271-4CE9-917C-6F6AA6D59231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DFE32F5D-232F-46D0-BE2C-D63A99CCA8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialysis data " sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PTFE Data " sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="303">
   <si>
     <t xml:space="preserve">HUMA </t>
   </si>
@@ -587,6 +588,9 @@
     <t xml:space="preserve">ph2/3, n=72, multi ctr, non-randomized, with life or limb threatening vascular trauma </t>
   </si>
   <si>
+    <t>p=0.389 alone</t>
+  </si>
+  <si>
     <t>Initial, short-term placement of prosthetic grafts with subsequent revision to a vein graft was defined as a temporizing procedure, and the patency of the vein graft was reported</t>
   </si>
   <si>
@@ -731,6 +735,9 @@
     <t>p=0.90</t>
   </si>
   <si>
+    <t>periphery, 8yr no Aes</t>
+  </si>
+  <si>
     <t>A Retrospective Cohort Comparison of Expanded Polytetrafluorethylene to Autologous Vein for Vascular Reconstruction in Modern Combat Casualty Care</t>
   </si>
   <si>
@@ -744,6 +751,9 @@
   </si>
   <si>
     <t>ISS ~20, MESS ~6</t>
+  </si>
+  <si>
+    <t>DATA FOR HISTORICAL COMPARISON</t>
   </si>
   <si>
     <t>Ischemia and functional status of the left arm and quality of life after left subclavian artery coverage during stent grafting of thoracic aortic diseases</t>
@@ -952,417 +962,6 @@
   <si>
     <t>T</t>
   </si>
-  <si>
-    <t>periphery, 8yr no AEs</t>
-  </si>
-  <si>
-    <t>Vertrees paper</t>
-  </si>
-  <si>
-    <t>Traumatic Lower Extremity Vascular Injuries and Limb Salvage in a Civilian Urban Trauma Center</t>
-  </si>
-  <si>
-    <t>Urechagga paper</t>
-  </si>
-  <si>
-    <t>retrospective analysis of lvl 1 trauma center btwn 2013-2020</t>
-  </si>
-  <si>
-    <t>primary objective was to look at limb salvage</t>
-  </si>
-  <si>
-    <t>secondary objective was mortality, mobility and complications</t>
-  </si>
-  <si>
-    <t>n=80</t>
-  </si>
-  <si>
-    <t>91% male, 68% penetrating, mISS 13</t>
-  </si>
-  <si>
-    <t>mostly short term follow-ups, only about a month or so. No long term data</t>
-  </si>
-  <si>
-    <t>In-Hospital Outcomes in Autogenous Vein Versus Synthetic Graft Interposition for Traumatic Arterial Injury: A Propensity-Matched Cohort From PROOVIT</t>
-  </si>
-  <si>
-    <t>Proovit database comparison, headline:</t>
-  </si>
-  <si>
-    <t>Prosthetic conduits work as well as autologous vein for interposition grafts in trauma</t>
-  </si>
-  <si>
-    <t>n=460, 402 SVG, 58 plastic (45 PTFE, 8 Dacron, 5 others)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic group pts were worse off. Higher ISS, more gunshot wounds, more lactate and transfusion reqs, </t>
-  </si>
-  <si>
-    <t>lower BP, pH, and hemoglobin</t>
-  </si>
-  <si>
-    <t>after propensity matching they had 87 AVGs and 51 PGs</t>
-  </si>
-  <si>
-    <r>
-      <t>endovascular intervention, reoperation, pseudoaneurysm and infection</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> were same </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">no mention of long term outcomes or amputation data </t>
-  </si>
-  <si>
-    <t>Stonko paper</t>
-  </si>
-  <si>
-    <t>Management and outcome of 597 wartime penetrating lower extremity arterial injuries from an international military cohort</t>
-  </si>
-  <si>
-    <t>Sharrock paper, Rasmussen last author</t>
-  </si>
-  <si>
-    <t>The objective of this study was to provide a comprehensive examination of penetrating lower extremity arterial injury and to characterize long-term limb salvage and differences related to mechanisms of injury</t>
-  </si>
-  <si>
-    <t>compared explosion (group 1) and gunshot (group 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patients </t>
-  </si>
-  <si>
-    <t xml:space="preserve">injuries </t>
-  </si>
-  <si>
-    <t>explosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gunnshot </t>
-  </si>
-  <si>
-    <t>ISS</t>
-  </si>
-  <si>
-    <t>MESS</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>more blood</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>more amputatin</t>
-  </si>
-  <si>
-    <t>patency similar in both</t>
-  </si>
-  <si>
-    <t>5.5yr amputation free</t>
-  </si>
-  <si>
-    <t>mentioned amputations often occur weeks after initial surgery</t>
-  </si>
-  <si>
-    <t>Long-term, patient-centered outcomes of Lower Extremity Vascular Trauma</t>
-  </si>
-  <si>
-    <t>Perkins paper Rasmussen last author</t>
-  </si>
-  <si>
-    <t>ex. injuries, n=</t>
-  </si>
-  <si>
-    <t>primary amputation</t>
-  </si>
-  <si>
-    <t>salvage surgery</t>
-  </si>
-  <si>
-    <t>sec. amp, &lt;30d</t>
-  </si>
-  <si>
-    <t>sec. amp, &gt;30d</t>
-  </si>
-  <si>
-    <t>10yr amp. Free</t>
-  </si>
-  <si>
-    <t>GWOT-VII database</t>
-  </si>
-  <si>
-    <t>from JTTR registry</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>3 &lt;24h, 1 2m later</t>
-  </si>
-  <si>
-    <t>sec amp</t>
-  </si>
-  <si>
-    <t>total amp</t>
-  </si>
-  <si>
-    <t>this is their amputation comparator</t>
-  </si>
-  <si>
-    <t>this includes primary and secondary amputations</t>
-  </si>
-  <si>
-    <t>these are amputations that had a salvage attempted</t>
-  </si>
-  <si>
-    <t>better comparator</t>
-  </si>
-  <si>
-    <t>Topline</t>
-  </si>
-  <si>
-    <t>Reasons for amputation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">necrosis of tissue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n </t>
-  </si>
-  <si>
-    <t>rzn for necrosis</t>
-  </si>
-  <si>
-    <t>before arrival</t>
-  </si>
-  <si>
-    <t>revasculaized, pre-op</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">fail vasc, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thrombosis</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">haemorhage </t>
-  </si>
-  <si>
-    <t>drug AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they note that they get fewer amputations and better results in soldiers than civillians </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvage </t>
-  </si>
-  <si>
-    <t>Pri. Amp</t>
-  </si>
-  <si>
-    <t>Sec. Amp</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 year data </t>
-  </si>
-  <si>
-    <t>Penetrating femoral artery injuries: an urban trauma centre experience</t>
-  </si>
-  <si>
-    <t>1 PTFE amputation, Sec. amp</t>
-  </si>
-  <si>
-    <t>1 PTFE sepsis, resolved, graft saved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 PTFE grafts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rayamaji paper </t>
-  </si>
-  <si>
-    <t>all femoral injuries at Groote Shurr hospital (Germany), 2002-2012</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">n=158, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>81 repairs, 53 AVG, 16 PTFE</t>
-    </r>
-  </si>
-  <si>
-    <t>primary amp</t>
-  </si>
-  <si>
-    <t>PTFE amp rate</t>
-  </si>
-  <si>
-    <t>Contemporary management of wartime vascular trauma</t>
-  </si>
-  <si>
-    <t>from Dec 2001 to Mar 2004</t>
-  </si>
-  <si>
-    <t>Fox study, single center, Walter Reed Bethesda, MD</t>
-  </si>
-  <si>
-    <t>soldiers evacd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battle injuries </t>
-  </si>
-  <si>
-    <t>vascular injuries</t>
-  </si>
-  <si>
-    <t>study group</t>
-  </si>
-  <si>
-    <t>explosive wound</t>
-  </si>
-  <si>
-    <t>gunshot</t>
-  </si>
-  <si>
-    <t>blunt trauma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repair in theater </t>
-  </si>
-  <si>
-    <t>prim amp</t>
-  </si>
-  <si>
-    <t>sec amp, repaired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 had mangled extremities w infections/ contaminated wounds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fox says 5/5 PTFE grafts failed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">he didn't report on it, "was looking into that", might be a follow-on study </t>
-  </si>
-  <si>
-    <t>DATA FOR SYNTH BENCHMARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">follow up time </t>
-  </si>
-  <si>
-    <t>62m</t>
-  </si>
-  <si>
-    <t>71m</t>
-  </si>
-  <si>
-    <t>so only exetremities were different</t>
-  </si>
-  <si>
-    <r>
-      <t>mortality 5%,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> amputation 10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in survivors</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">we don’t really know how outcomes differ btwn AVG and PTFE. But overall 90% limb salvage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">again, not really chopping up the data on PTFE vs AVG. this was looking at  lower body explosion vs gunshot </t>
-  </si>
-  <si>
-    <t>n=16</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">but also that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mISS was about 40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, range 16-75 in about a 1/3 of pts he had looked at </t>
-    </r>
-  </si>
-  <si>
-    <t>p=0.31 alone</t>
-  </si>
 </sst>
 </file>
 
@@ -1371,7 +970,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,14 +1026,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="4" tint="0.39997558519241921"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1591,7 +1182,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1627,10 +1218,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2089,94 +1676,6 @@
         <a:xfrm>
           <a:off x="5975350" y="19941664"/>
           <a:ext cx="2093189" cy="1350444"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>2634</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>105993</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>24768</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8358E3C4-3F0B-E06A-5F05-8770917BFA88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="30225459"/>
-          <a:ext cx="2339606" cy="1831884"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>50958</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>339094</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>172439</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC327C5-99F0-3495-C25A-2E0B8BD49F72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5957887" y="40770333"/>
-          <a:ext cx="2044070" cy="2112206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2688,52 +2187,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C12F87-22F6-4A73-AE59-8F1AD2B65A37}">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -2741,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2752,7 +2251,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -2766,55 +2265,55 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2825,9 +2324,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B39" s="5">
         <v>0.92</v>
@@ -2836,9 +2335,9 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B40" s="5">
         <v>0.82</v>
@@ -2847,9 +2346,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B41" s="5">
         <v>0.73</v>
@@ -2858,9 +2357,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B42" s="5">
         <v>0.67</v>
@@ -2869,63 +2368,63 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -2933,17 +2432,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>23</v>
       </c>
@@ -2951,7 +2450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -2962,7 +2461,7 @@
         <v>16533</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -2973,7 +2472,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -2984,7 +2483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +2491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -3012,7 +2511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3032,7 +2531,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3052,7 +2551,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3075,7 +2574,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3089,7 +2588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5</v>
       </c>
@@ -3112,11 +2611,11 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -3142,7 +2641,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3165,7 +2664,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3188,7 +2687,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>3</v>
       </c>
@@ -3211,7 +2710,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>4</v>
       </c>
@@ -3234,7 +2733,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5</v>
       </c>
@@ -3248,11 +2747,11 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3263,7 +2762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -3274,7 +2773,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3285,7 +2784,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3</v>
       </c>
@@ -3296,7 +2795,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>4</v>
       </c>
@@ -3307,7 +2806,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5</v>
       </c>
@@ -3318,7 +2817,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -3328,87 +2827,87 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F111" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F112" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="128" ht="5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" spans="1:4" ht="5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="135" spans="1:4" ht="5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D137" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B138" s="5">
         <v>0.78</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B139" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2008</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C148" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D148" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B149" s="5">
         <v>0.9</v>
@@ -3420,9 +2919,9 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B150" s="5">
         <v>0.75</v>
@@ -3434,57 +2933,57 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B152" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2020</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" t="s">
+        <v>259</v>
+      </c>
+      <c r="D162" t="s">
+        <v>260</v>
+      </c>
+      <c r="E162" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B162" t="s">
-        <v>255</v>
-      </c>
-      <c r="C162" t="s">
-        <v>256</v>
-      </c>
-      <c r="D162" t="s">
-        <v>257</v>
-      </c>
-      <c r="E162" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>277</v>
       </c>
       <c r="B163" s="5">
         <v>0.56000000000000005</v>
@@ -3499,9 +2998,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B164" s="5">
         <v>0.59</v>
@@ -3516,9 +3015,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B165" s="5">
         <v>0.8</v>
@@ -3544,33 +3043,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C0B03-A85E-4475-AFC6-CFCE429589BC}">
-  <dimension ref="A3:L273"/>
+  <dimension ref="A3:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="K263" sqref="K263"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>181</v>
       </c>
@@ -3578,17 +3077,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -3598,9 +3097,9 @@
       <c r="K14" s="16"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>94</v>
@@ -3608,7 +3107,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -3616,7 +3115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -3624,37 +3123,37 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>82</v>
       </c>
@@ -3662,12 +3161,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>84</v>
       </c>
@@ -3675,7 +3174,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>87</v>
       </c>
@@ -3683,66 +3182,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>100</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3753,13 +3252,13 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K39">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -3770,13 +3269,13 @@
         <v>121</v>
       </c>
       <c r="J40" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -3790,53 +3289,53 @@
         <v>107</v>
       </c>
       <c r="J41" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="1">
         <v>0.02</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>274</v>
+      <c r="D42" s="1">
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K42">
         <f>SUM(K39:K41)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="J43" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="J44" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K44">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B45" s="31">
         <v>0.91500000000000004</v>
@@ -3844,13 +3343,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="J45" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K45">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>33</v>
       </c>
@@ -3860,13 +3359,13 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="J46" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>105</v>
       </c>
@@ -3876,33 +3375,33 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="J47" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K47">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>11</v>
       </c>
@@ -3910,7 +3409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -3921,7 +3420,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -3932,7 +3431,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -3943,119 +3442,119 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B79" s="31">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" s="32">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B82" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -4063,67 +3562,67 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B88" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2015</v>
       </c>
@@ -4131,17 +3630,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B107" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -4149,103 +3648,103 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A129" s="38" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2014</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B132" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2013</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B140" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B141" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B144">
         <v>24</v>
@@ -4254,917 +3753,200 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>399</v>
-      </c>
-      <c r="B145" t="s">
-        <v>400</v>
-      </c>
-      <c r="C145" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>224</v>
-      </c>
-      <c r="B146" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="C146" s="5">
-        <v>0.17</v>
+        <v>228</v>
+      </c>
+      <c r="B146" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" t="s">
+        <v>229</v>
       </c>
       <c r="D146" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>227</v>
-      </c>
-      <c r="B147" t="s">
-        <v>228</v>
-      </c>
-      <c r="C147" t="s">
-        <v>228</v>
+        <v>231</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.31</v>
       </c>
       <c r="D147" t="s">
-        <v>229</v>
-      </c>
-      <c r="E147" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
-        <v>300</v>
-      </c>
-      <c r="B148" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="C148" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="D148" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A154">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>2009</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>240</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="B153" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>295</v>
+      </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>300</v>
+      </c>
+      <c r="H156" s="1">
+        <f>F156/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>246</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="E157" t="s">
+        <v>296</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B156" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H157" s="1">
+        <f>F157/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F158">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G158" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H158" s="1">
         <f>F158/14</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>243</v>
-      </c>
-      <c r="B159">
-        <v>6</v>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>249</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H159" s="1">
         <f>F159/14</f>
-        <v>0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>244</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
+        <v>248</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0.79</v>
       </c>
       <c r="E160" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H160" s="1">
         <f>F160/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
-        <v>246</v>
-      </c>
-      <c r="E161" t="s">
-        <v>295</v>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161" t="s">
-        <v>299</v>
-      </c>
-      <c r="H161" s="1">
-        <f>F161/14</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>245</v>
-      </c>
-      <c r="B162" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="E162" t="s">
-        <v>296</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162" t="s">
-        <v>299</v>
-      </c>
-      <c r="H162" s="1">
-        <f>F162/14</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B165" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B166" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B169" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A170">
-        <v>2021</v>
-      </c>
-      <c r="B170" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B171" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B172" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B173" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B174" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B175" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B176" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B177" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B178" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D180" s="23"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A181">
-        <v>2022</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B182" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B183" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B184" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B185" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B186" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B187" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B188" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B189" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B190" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A192">
-        <v>2019</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B193" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B194" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B195" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
-        <v>324</v>
-      </c>
-      <c r="B196">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
-        <v>325</v>
-      </c>
-      <c r="B197">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B198" t="s">
-        <v>326</v>
-      </c>
-      <c r="C198" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
-        <v>330</v>
-      </c>
-      <c r="B199">
-        <v>416</v>
-      </c>
-      <c r="C199">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
-        <v>331</v>
-      </c>
-      <c r="B202" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
-        <v>333</v>
-      </c>
-      <c r="B203" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
-        <v>335</v>
-      </c>
-      <c r="B205" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="C205" s="5">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B207" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B208" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A210">
-        <v>2016</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B211" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B212" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B213" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A214" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
-        <v>339</v>
-      </c>
-      <c r="B215">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
-        <v>340</v>
-      </c>
-      <c r="B216">
-        <v>49</v>
-      </c>
-      <c r="C216" s="2">
-        <f>B216/B215</f>
-        <v>8.46286701208981E-2</v>
-      </c>
-      <c r="F216" s="4"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
-        <v>341</v>
-      </c>
-      <c r="B217">
-        <v>530</v>
-      </c>
-      <c r="C217" s="2">
-        <f>B217/B215</f>
-        <v>0.91537132987910186</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
-        <v>349</v>
-      </c>
-      <c r="B218">
-        <v>90</v>
-      </c>
-      <c r="C218" s="36">
-        <f>B218/B217</f>
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="D218" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A219" t="s">
-        <v>342</v>
-      </c>
-      <c r="B219">
-        <v>60</v>
-      </c>
-      <c r="D219" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
-        <v>343</v>
-      </c>
-      <c r="B220">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A221" t="s">
-        <v>344</v>
-      </c>
-      <c r="B221">
-        <v>438</v>
-      </c>
-      <c r="C221" s="2">
-        <f>B221/B217</f>
-        <v>0.82641509433962268</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A222" t="s">
-        <v>347</v>
-      </c>
-      <c r="B222">
-        <v>4</v>
-      </c>
-      <c r="C222" s="35">
-        <f>B222/B215</f>
-        <v>6.9084628670120895E-3</v>
-      </c>
-      <c r="D222" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A223" t="s">
-        <v>350</v>
-      </c>
-      <c r="B223">
-        <v>139</v>
-      </c>
-      <c r="C223" s="36">
-        <f>B223/B215</f>
-        <v>0.24006908462867013</v>
-      </c>
-      <c r="D223" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D224" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A226" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A227" t="s">
-        <v>358</v>
-      </c>
-      <c r="B227">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
-        <v>357</v>
-      </c>
-      <c r="B228">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A229" s="23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
-        <v>360</v>
-      </c>
-      <c r="B230">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A231" t="s">
-        <v>361</v>
-      </c>
-      <c r="B231">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A232" t="s">
-        <v>362</v>
-      </c>
-      <c r="B232">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A233" t="s">
-        <v>363</v>
-      </c>
-      <c r="B233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A234" t="s">
-        <v>364</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B235" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B237" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C238" t="s">
-        <v>366</v>
-      </c>
-      <c r="D238" t="s">
-        <v>367</v>
-      </c>
-      <c r="E238" t="s">
-        <v>368</v>
-      </c>
-      <c r="F238" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B239" t="s">
-        <v>370</v>
-      </c>
-      <c r="C239">
-        <v>247</v>
-      </c>
-      <c r="D239">
-        <v>205</v>
-      </c>
-      <c r="E239">
-        <v>8</v>
-      </c>
-      <c r="F239">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D240" s="1">
-        <f>D239/C239</f>
-        <v>0.82995951417004044</v>
-      </c>
-      <c r="E240" s="1">
-        <f>E239/C239</f>
-        <v>3.2388663967611336E-2</v>
-      </c>
-      <c r="F240" s="1">
-        <f>F239/C239</f>
-        <v>0.22267206477732793</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B241" t="s">
-        <v>371</v>
-      </c>
-      <c r="C241">
-        <v>21</v>
-      </c>
-      <c r="D241">
-        <v>14</v>
-      </c>
-      <c r="E241">
-        <v>2</v>
-      </c>
-      <c r="F241">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D242" s="1">
-        <f>D241/C241</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E242" s="1">
-        <f>E241/C241</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="F242" s="1">
-        <f>F241/C241</f>
-        <v>0.23809523809523808</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A245">
-        <v>2018</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B246" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B247" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B248" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A249" t="s">
-        <v>380</v>
-      </c>
-      <c r="B249">
-        <v>4</v>
-      </c>
-      <c r="C249" s="1">
-        <f>B249/158</f>
-        <v>2.5316455696202531E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A250" t="s">
-        <v>349</v>
-      </c>
-      <c r="B250">
-        <v>10</v>
-      </c>
-      <c r="C250" s="1">
-        <f>B250/158</f>
-        <v>6.3291139240506333E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B252" t="s">
-        <v>376</v>
-      </c>
-      <c r="E252" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B253" t="s">
-        <v>374</v>
-      </c>
-      <c r="E253" s="37">
-        <f>1/16</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F253" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B254" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A257">
-        <v>2005</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B258" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B259" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A260" t="s">
-        <v>385</v>
-      </c>
-      <c r="B260">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A261" t="s">
-        <v>386</v>
-      </c>
-      <c r="B261">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
-        <v>387</v>
-      </c>
-      <c r="B262" s="4">
-        <v>107</v>
-      </c>
-      <c r="C262" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A263" t="s">
-        <v>389</v>
-      </c>
-      <c r="B263">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A264" t="s">
-        <v>390</v>
-      </c>
-      <c r="B264">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A265" t="s">
-        <v>391</v>
-      </c>
-      <c r="B265">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
-        <v>392</v>
-      </c>
-      <c r="B266">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A267" t="s">
-        <v>393</v>
-      </c>
-      <c r="B267">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A268" t="s">
-        <v>394</v>
-      </c>
-      <c r="B268">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B269" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B271" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B272" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B273" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5186,99 +3968,99 @@
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.9296875" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>202</v>
-      </c>
       <c r="C40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>208</v>
       </c>
       <c r="B42" s="5">
         <v>0.73</v>
@@ -5287,12 +4069,12 @@
         <v>0.81</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B43" s="5">
         <v>0.84</v>
@@ -5301,13 +4083,13 @@
         <v>0.88</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H43" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -5318,12 +4100,12 @@
         <v>0.5</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B45" s="5">
         <v>0.45</v>
@@ -5332,12 +4114,12 @@
         <v>0.72</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B46" s="5">
         <v>0.64</v>
@@ -5346,25 +4128,25 @@
         <v>0.72</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2024</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5381,58 +4163,58 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.265625" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>144</v>
       </c>
@@ -5446,7 +4228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -5463,7 +4245,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5480,7 +4262,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -5497,7 +4279,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -5514,7 +4296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -5531,7 +4313,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -5548,12 +4330,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>173</v>
       </c>
@@ -5561,7 +4343,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>169</v>
       </c>
@@ -5572,7 +4354,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>149</v>
       </c>
@@ -5583,7 +4365,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>170</v>
       </c>
@@ -5594,7 +4376,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>171</v>
       </c>
@@ -5605,7 +4387,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>172</v>
       </c>
@@ -5616,7 +4398,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>150</v>
       </c>
@@ -5627,7 +4409,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>176</v>
       </c>
@@ -5638,7 +4420,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>177</v>
       </c>
@@ -5649,7 +4431,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>180</v>
       </c>
